--- a/team_specific_matrix/Stonehill_B.xlsx
+++ b/team_specific_matrix/Stonehill_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2155172413793103</v>
+        <v>0.2147887323943662</v>
       </c>
       <c r="C2">
-        <v>0.5301724137931034</v>
+        <v>0.5316901408450704</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01724137931034483</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1422413793103448</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09482758620689655</v>
+        <v>0.09154929577464789</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007633587786259542</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.04580152671755725</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02290076335877863</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.816793893129771</v>
+        <v>0.808641975308642</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1068702290076336</v>
+        <v>0.1172839506172839</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07947019867549669</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006622516556291391</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E6">
-        <v>0.006622516556291391</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="F6">
-        <v>0.03973509933774835</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2582781456953642</v>
+        <v>0.2864321608040201</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02649006622516556</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1059602649006623</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="R6">
-        <v>0.1324503311258278</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="S6">
-        <v>0.3443708609271523</v>
+        <v>0.3366834170854272</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764706</v>
+        <v>0.08208955223880597</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009803921568627451</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0392156862745098</v>
+        <v>0.03731343283582089</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1274509803921569</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0196078431372549</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1568627450980392</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="R7">
-        <v>0.107843137254902</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="S7">
-        <v>0.4509803921568628</v>
+        <v>0.4626865671641791</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0594059405940594</v>
+        <v>0.05177111716621254</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0165016501650165</v>
+        <v>0.01634877384196185</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03630363036303631</v>
+        <v>0.04087193460490463</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1452145214521452</v>
+        <v>0.1416893732970027</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0231023102310231</v>
+        <v>0.01907356948228883</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1683168316831683</v>
+        <v>0.1689373297002725</v>
       </c>
       <c r="R8">
-        <v>0.1188118811881188</v>
+        <v>0.1198910081743869</v>
       </c>
       <c r="S8">
-        <v>0.4323432343234324</v>
+        <v>0.4414168937329701</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05524861878453038</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01104972375690608</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03314917127071823</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.143646408839779</v>
+        <v>0.148471615720524</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02762430939226519</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1104972375690608</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="R9">
-        <v>0.138121546961326</v>
+        <v>0.1441048034934498</v>
       </c>
       <c r="S9">
-        <v>0.4806629834254144</v>
+        <v>0.462882096069869</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1171171171171171</v>
+        <v>0.1115674195756331</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02342342342342342</v>
+        <v>0.02190280629705681</v>
       </c>
       <c r="E10">
-        <v>0.002702702702702703</v>
+        <v>0.002737850787132101</v>
       </c>
       <c r="F10">
-        <v>0.06666666666666667</v>
+        <v>0.06433949349760439</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1216216216216216</v>
+        <v>0.1238877481177276</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01261261261261261</v>
+        <v>0.01711156741957563</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.181981981981982</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="R10">
-        <v>0.1018018018018018</v>
+        <v>0.1054072553045859</v>
       </c>
       <c r="S10">
-        <v>0.372072072072072</v>
+        <v>0.3620807665982204</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.1644444444444444</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.103448275862069</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K11">
-        <v>0.2241379310344828</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5057471264367817</v>
+        <v>0.5022222222222222</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7790697674418605</v>
+        <v>0.7767857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1976744186046512</v>
+        <v>0.1875</v>
       </c>
       <c r="K12">
-        <v>0.01162790697674419</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01162790697674419</v>
+        <v>0.008928571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01515151515151515</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1313131313131313</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I15">
-        <v>0.08585858585858586</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="J15">
-        <v>0.404040404040404</v>
+        <v>0.407563025210084</v>
       </c>
       <c r="K15">
-        <v>0.0505050505050505</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08585858585858586</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2272727272727273</v>
+        <v>0.2478991596638656</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02976190476190476</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="I16">
         <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.4583333333333333</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="K16">
-        <v>0.07738095238095238</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N16">
-        <v>0.005952380952380952</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1130952380952381</v>
+        <v>0.1127450980392157</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01655629139072848</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1655629139072848</v>
+        <v>0.1506172839506173</v>
       </c>
       <c r="I17">
-        <v>0.08609271523178808</v>
+        <v>0.09135802469135802</v>
       </c>
       <c r="J17">
-        <v>0.456953642384106</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="K17">
-        <v>0.09602649006622517</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01655629139072848</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0695364238410596</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09271523178807947</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01951219512195122</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1268292682926829</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I18">
-        <v>0.1317073170731707</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="J18">
-        <v>0.4975609756097561</v>
+        <v>0.4925925925925926</v>
       </c>
       <c r="K18">
-        <v>0.06341463414634146</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00975609756097561</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06341463414634146</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08780487804878048</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01469045120671563</v>
+        <v>0.01791530944625407</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1888772298006296</v>
+        <v>0.1767100977198697</v>
       </c>
       <c r="I19">
-        <v>0.09968520461699895</v>
+        <v>0.0993485342019544</v>
       </c>
       <c r="J19">
-        <v>0.4365162644281217</v>
+        <v>0.4495114006514658</v>
       </c>
       <c r="K19">
-        <v>0.07030430220356768</v>
+        <v>0.07247557003257329</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01573976915005246</v>
+        <v>0.01465798045602606</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08604407135362015</v>
+        <v>0.07899022801302931</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08814270724029381</v>
+        <v>0.09039087947882736</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Stonehill_B.xlsx
+++ b/team_specific_matrix/Stonehill_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2147887323943662</v>
+        <v>0.2124183006535948</v>
       </c>
       <c r="C2">
-        <v>0.5316901408450704</v>
+        <v>0.5359477124183006</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02112676056338028</v>
+        <v>0.02287581699346405</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1408450704225352</v>
+        <v>0.1339869281045752</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09154929577464789</v>
+        <v>0.09477124183006536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006172839506172839</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C3">
-        <v>0.04320987654320987</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02469135802469136</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.808641975308642</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1172839506172839</v>
+        <v>0.1257142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07035175879396985</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01005025125628141</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E6">
-        <v>0.005025125628140704</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="F6">
-        <v>0.04020100502512563</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2864321608040201</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02512562814070352</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1005025125628141</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="R6">
-        <v>0.1256281407035176</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="S6">
-        <v>0.3366834170854272</v>
+        <v>0.3440366972477064</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08208955223880597</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007462686567164179</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F7">
-        <v>0.03731343283582089</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1343283582089552</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01492537313432836</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1492537313432836</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="R7">
-        <v>0.1119402985074627</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="S7">
-        <v>0.4626865671641791</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05177111716621254</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01634877384196185</v>
+        <v>0.01452784503631961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04087193460490463</v>
+        <v>0.04116222760290557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1416893732970027</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01907356948228883</v>
+        <v>0.02179176755447942</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1689373297002725</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R8">
-        <v>0.1198910081743869</v>
+        <v>0.12590799031477</v>
       </c>
       <c r="S8">
-        <v>0.4414168937329701</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05240174672489083</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01310043668122271</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03493449781659388</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.148471615720524</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02183406113537118</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1222707423580786</v>
+        <v>0.125</v>
       </c>
       <c r="R9">
-        <v>0.1441048034934498</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="S9">
-        <v>0.462882096069869</v>
+        <v>0.4677419354838709</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115674195756331</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02190280629705681</v>
+        <v>0.02262727844123193</v>
       </c>
       <c r="E10">
-        <v>0.002737850787132101</v>
+        <v>0.00251414204902577</v>
       </c>
       <c r="F10">
-        <v>0.06433949349760439</v>
+        <v>0.06599622878692646</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1238877481177276</v>
+        <v>0.1194217473287241</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01711156741957563</v>
+        <v>0.01948460087994972</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1909650924024641</v>
+        <v>0.1961030798240101</v>
       </c>
       <c r="R10">
-        <v>0.1054072553045859</v>
+        <v>0.1043368950345695</v>
       </c>
       <c r="S10">
-        <v>0.3620807665982204</v>
+        <v>0.3614079195474544</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1644444444444444</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1066666666666667</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="K11">
-        <v>0.2266666666666667</v>
+        <v>0.225296442687747</v>
       </c>
       <c r="L11">
-        <v>0.5022222222222222</v>
+        <v>0.5019762845849802</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7767857142857143</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1875</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="K12">
-        <v>0.01785714285714286</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="L12">
-        <v>0.008928571428571428</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008928571428571428</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3846153846153846</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1153846153846154</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01260504201680672</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1176470588235294</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="I15">
-        <v>0.07983193277310924</v>
+        <v>0.08015267175572519</v>
       </c>
       <c r="J15">
-        <v>0.407563025210084</v>
+        <v>0.4160305343511451</v>
       </c>
       <c r="K15">
-        <v>0.0546218487394958</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07983193277310924</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2478991596638656</v>
+        <v>0.2442748091603053</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02450980392156863</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.142156862745098</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="J16">
-        <v>0.4803921568627451</v>
+        <v>0.4790697674418605</v>
       </c>
       <c r="K16">
-        <v>0.06862745098039216</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0196078431372549</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N16">
-        <v>0.004901960784313725</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="O16">
-        <v>0.06372549019607843</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1127450980392157</v>
+        <v>0.1209302325581395</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01975308641975309</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1506172839506173</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="I17">
-        <v>0.09135802469135802</v>
+        <v>0.08991228070175439</v>
       </c>
       <c r="J17">
-        <v>0.4814814814814815</v>
+        <v>0.4846491228070176</v>
       </c>
       <c r="K17">
-        <v>0.08148148148148149</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01234567901234568</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05925925925925926</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1037037037037037</v>
+        <v>0.1096491228070175</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01851851851851852</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1333333333333333</v>
+        <v>0.1375838926174497</v>
       </c>
       <c r="I18">
-        <v>0.1185185185185185</v>
+        <v>0.1174496644295302</v>
       </c>
       <c r="J18">
-        <v>0.4925925925925926</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="K18">
-        <v>0.07407407407407407</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01481481481481482</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05925925925925926</v>
+        <v>0.05704697986577181</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08888888888888889</v>
+        <v>0.09731543624161074</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01791530944625407</v>
+        <v>0.01630837657524092</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1767100977198697</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="I19">
-        <v>0.0993485342019544</v>
+        <v>0.09710896960711639</v>
       </c>
       <c r="J19">
-        <v>0.4495114006514658</v>
+        <v>0.4432913269088213</v>
       </c>
       <c r="K19">
-        <v>0.07247557003257329</v>
+        <v>0.07412898443291327</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01465798045602606</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07899022801302931</v>
+        <v>0.08080059303187546</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09039087947882736</v>
+        <v>0.09117865085248332</v>
       </c>
     </row>
   </sheetData>
